--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.26722666666667</v>
+        <v>64.51746766666666</v>
       </c>
       <c r="H2">
-        <v>165.80168</v>
+        <v>193.552403</v>
       </c>
       <c r="I2">
-        <v>0.01597985502890189</v>
+        <v>0.01908790637288361</v>
       </c>
       <c r="J2">
-        <v>0.01623411501809385</v>
+        <v>0.0192326001326142</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.908652666666666</v>
+        <v>7.658574666666667</v>
       </c>
       <c r="N2">
-        <v>23.725958</v>
+        <v>22.975724</v>
       </c>
       <c r="O2">
-        <v>0.1059802478036631</v>
+        <v>0.1056247585863608</v>
       </c>
       <c r="P2">
-        <v>0.1086148104297394</v>
+        <v>0.1080674328374073</v>
       </c>
       <c r="Q2">
-        <v>437.0892995566044</v>
+        <v>494.1118434294191</v>
       </c>
       <c r="R2">
-        <v>3933.80369600944</v>
+        <v>4447.006590864771</v>
       </c>
       <c r="S2">
-        <v>0.001693548995829635</v>
+        <v>0.00201615550255489</v>
       </c>
       <c r="T2">
-        <v>0.001763265325184848</v>
+        <v>0.002078417723119996</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.26722666666667</v>
+        <v>64.51746766666666</v>
       </c>
       <c r="H3">
-        <v>165.80168</v>
+        <v>193.552403</v>
       </c>
       <c r="I3">
-        <v>0.01597985502890189</v>
+        <v>0.01908790637288361</v>
       </c>
       <c r="J3">
-        <v>0.01623411501809385</v>
+        <v>0.0192326001326142</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>32.309272</v>
       </c>
       <c r="O3">
-        <v>0.1443206066922968</v>
+        <v>0.1485332542774742</v>
       </c>
       <c r="P3">
-        <v>0.1479082721718923</v>
+        <v>0.1519682288090475</v>
       </c>
       <c r="Q3">
-        <v>595.2146196863289</v>
+        <v>694.8374705311794</v>
       </c>
       <c r="R3">
-        <v>5356.93157717696</v>
+        <v>6253.537234780615</v>
       </c>
       <c r="S3">
-        <v>0.002306222372626072</v>
+        <v>0.002835188850908143</v>
       </c>
       <c r="T3">
-        <v>0.00240115990256603</v>
+        <v>0.002922744177546032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.26722666666667</v>
+        <v>64.51746766666666</v>
       </c>
       <c r="H4">
-        <v>165.80168</v>
+        <v>193.552403</v>
       </c>
       <c r="I4">
-        <v>0.01597985502890189</v>
+        <v>0.01908790637288361</v>
       </c>
       <c r="J4">
-        <v>0.01623411501809385</v>
+        <v>0.0192326001326142</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.37830233333333</v>
+        <v>21.58649266666667</v>
       </c>
       <c r="N4">
-        <v>58.134907</v>
+        <v>64.759478</v>
       </c>
       <c r="O4">
-        <v>0.2596797924831069</v>
+        <v>0.2977144150029286</v>
       </c>
       <c r="P4">
-        <v>0.2661351715768665</v>
+        <v>0.3045993475265701</v>
       </c>
       <c r="Q4">
-        <v>1070.985027471529</v>
+        <v>1392.705842658404</v>
       </c>
       <c r="R4">
-        <v>9638.865247243761</v>
+        <v>12534.35258392563</v>
       </c>
       <c r="S4">
-        <v>0.004149645437815375</v>
+        <v>0.005682744879433717</v>
       </c>
       <c r="T4">
-        <v>0.004320468985738992</v>
+        <v>0.005858237451633709</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.26722666666667</v>
+        <v>64.51746766666666</v>
       </c>
       <c r="H5">
-        <v>165.80168</v>
+        <v>193.552403</v>
       </c>
       <c r="I5">
-        <v>0.01597985502890189</v>
+        <v>0.01908790637288361</v>
       </c>
       <c r="J5">
-        <v>0.01623411501809385</v>
+        <v>0.0192326001326142</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.430231</v>
+        <v>4.9167055</v>
       </c>
       <c r="N5">
-        <v>10.860462</v>
+        <v>9.833411</v>
       </c>
       <c r="O5">
-        <v>0.07276804928312694</v>
+        <v>0.06780972362103574</v>
       </c>
       <c r="P5">
-        <v>0.04971799331809439</v>
+        <v>0.04625192585030714</v>
       </c>
       <c r="Q5">
-        <v>300.11380752936</v>
+        <v>317.2133881227721</v>
       </c>
       <c r="R5">
-        <v>1800.68284517616</v>
+        <v>1903.280328736633</v>
       </c>
       <c r="S5">
-        <v>0.001162822878280357</v>
+        <v>0.001294345655649445</v>
       </c>
       <c r="T5">
-        <v>0.0008071276219947658</v>
+        <v>0.0008895447952422792</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.26722666666667</v>
+        <v>64.51746766666666</v>
       </c>
       <c r="H6">
-        <v>165.80168</v>
+        <v>193.552403</v>
       </c>
       <c r="I6">
-        <v>0.01597985502890189</v>
+        <v>0.01908790637288361</v>
       </c>
       <c r="J6">
-        <v>0.01623411501809385</v>
+        <v>0.0192326001326142</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.136893</v>
+        <v>27.57585133333333</v>
       </c>
       <c r="N6">
-        <v>93.410679</v>
+        <v>82.727554</v>
       </c>
       <c r="O6">
-        <v>0.4172513037378061</v>
+        <v>0.3803178485122005</v>
       </c>
       <c r="P6">
-        <v>0.4276237525034073</v>
+        <v>0.3891130649766679</v>
       </c>
       <c r="Q6">
-        <v>1720.849723126747</v>
+        <v>1779.12409677914</v>
       </c>
       <c r="R6">
-        <v>15487.64750814072</v>
+        <v>16012.11687101226</v>
       </c>
       <c r="S6">
-        <v>0.006667615344350452</v>
+        <v>0.007259471484337417</v>
       </c>
       <c r="T6">
-        <v>0.006942093182609212</v>
+        <v>0.007483655985072179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9693.510254000001</v>
       </c>
       <c r="I7">
-        <v>0.93425403518284</v>
+        <v>0.9559623816860557</v>
       </c>
       <c r="J7">
-        <v>0.9491192151521513</v>
+        <v>0.9632089486203771</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.908652666666666</v>
+        <v>7.658574666666667</v>
       </c>
       <c r="N7">
-        <v>23.725958</v>
+        <v>22.975724</v>
       </c>
       <c r="O7">
-        <v>0.1059802478036631</v>
+        <v>0.1056247585863608</v>
       </c>
       <c r="P7">
-        <v>0.1086148104297394</v>
+        <v>0.1080674328374073</v>
       </c>
       <c r="Q7">
-        <v>25554.20190655259</v>
+        <v>24746.15735411932</v>
       </c>
       <c r="R7">
-        <v>229987.8171589733</v>
+        <v>222715.4161870739</v>
       </c>
       <c r="S7">
-        <v>0.09901247416024958</v>
+        <v>0.1009732957832322</v>
       </c>
       <c r="T7">
-        <v>0.1030884036289739</v>
+        <v>0.1040915183634223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9693.510254000001</v>
       </c>
       <c r="I8">
-        <v>0.93425403518284</v>
+        <v>0.9559623816860557</v>
       </c>
       <c r="J8">
-        <v>0.9491192151521513</v>
+        <v>0.9632089486203771</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>32.309272</v>
       </c>
       <c r="O8">
-        <v>0.1443206066922968</v>
+        <v>0.1485332542774742</v>
       </c>
       <c r="P8">
-        <v>0.1479082721718923</v>
+        <v>0.1519682288090475</v>
       </c>
       <c r="Q8">
         <v>34798.91771458612</v>
@@ -948,10 +948,10 @@
         <v>313190.2594312751</v>
       </c>
       <c r="S8">
-        <v>0.1348321091623139</v>
+        <v>0.1419922035186748</v>
       </c>
       <c r="T8">
-        <v>0.1403825831982972</v>
+        <v>0.1463771578948636</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9693.510254000001</v>
       </c>
       <c r="I9">
-        <v>0.93425403518284</v>
+        <v>0.9559623816860557</v>
       </c>
       <c r="J9">
-        <v>0.9491192151521513</v>
+        <v>0.9632089486203771</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.37830233333333</v>
+        <v>21.58649266666667</v>
       </c>
       <c r="N9">
-        <v>58.134907</v>
+        <v>64.759478</v>
       </c>
       <c r="O9">
-        <v>0.2596797924831069</v>
+        <v>0.2977144150029286</v>
       </c>
       <c r="P9">
-        <v>0.2661351715768665</v>
+        <v>0.3045993475265701</v>
       </c>
       <c r="Q9">
-        <v>62614.59079109294</v>
+        <v>69749.62933740971</v>
       </c>
       <c r="R9">
-        <v>563531.3171198365</v>
+        <v>627746.6640366875</v>
       </c>
       <c r="S9">
-        <v>0.2426068939827851</v>
+        <v>0.2846037812284704</v>
       </c>
       <c r="T9">
-        <v>0.2525940051714187</v>
+        <v>0.2933928172815204</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9693.510254000001</v>
       </c>
       <c r="I10">
-        <v>0.93425403518284</v>
+        <v>0.9559623816860557</v>
       </c>
       <c r="J10">
-        <v>0.9491192151521513</v>
+        <v>0.9632089486203771</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.430231</v>
+        <v>4.9167055</v>
       </c>
       <c r="N10">
-        <v>10.860462</v>
+        <v>9.833411</v>
       </c>
       <c r="O10">
-        <v>0.07276804928312694</v>
+        <v>0.06780972362103574</v>
       </c>
       <c r="P10">
-        <v>0.04971799331809439</v>
+        <v>0.04625192585030714</v>
       </c>
       <c r="Q10">
-        <v>17545.99996002956</v>
+        <v>15886.71172671607</v>
       </c>
       <c r="R10">
-        <v>105275.9997601774</v>
+        <v>95320.2703602964</v>
       </c>
       <c r="S10">
-        <v>0.06798384367514511</v>
+        <v>0.06482354489423851</v>
       </c>
       <c r="T10">
-        <v>0.04718830279700965</v>
+        <v>0.04455026886994198</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>9693.510254000001</v>
       </c>
       <c r="I11">
-        <v>0.93425403518284</v>
+        <v>0.9559623816860557</v>
       </c>
       <c r="J11">
-        <v>0.9491192151521513</v>
+        <v>0.9632089486203771</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.136893</v>
+        <v>27.57585133333333</v>
       </c>
       <c r="N11">
-        <v>93.410679</v>
+        <v>82.727554</v>
       </c>
       <c r="O11">
-        <v>0.4172513037378061</v>
+        <v>0.3803178485122005</v>
       </c>
       <c r="P11">
-        <v>0.4276237525034073</v>
+        <v>0.3891130649766679</v>
       </c>
       <c r="Q11">
-        <v>100608.5971910669</v>
+        <v>89102.26588748208</v>
       </c>
       <c r="R11">
-        <v>905477.3747196025</v>
+        <v>801920.3929873387</v>
       </c>
       <c r="S11">
-        <v>0.3898187142023462</v>
+        <v>0.3635695562614398</v>
       </c>
       <c r="T11">
-        <v>0.4058659203564517</v>
+        <v>0.3747971862106287</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.924789</v>
+        <v>4.815307333333333</v>
       </c>
       <c r="H12">
-        <v>17.774367</v>
+        <v>14.445922</v>
       </c>
       <c r="I12">
-        <v>0.001713081603820286</v>
+        <v>0.001424639541189161</v>
       </c>
       <c r="J12">
-        <v>0.001740338929326963</v>
+        <v>0.001435438863411757</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.908652666666666</v>
+        <v>7.658574666666667</v>
       </c>
       <c r="N12">
-        <v>23.725958</v>
+        <v>22.975724</v>
       </c>
       <c r="O12">
-        <v>0.1059802478036631</v>
+        <v>0.1056247585863608</v>
       </c>
       <c r="P12">
-        <v>0.1086148104297394</v>
+        <v>0.1080674328374073</v>
       </c>
       <c r="Q12">
-        <v>46.85709832428733</v>
+        <v>36.87839075528089</v>
       </c>
       <c r="R12">
-        <v>421.7138849185859</v>
+        <v>331.905516797528</v>
       </c>
       <c r="S12">
-        <v>0.0001815528128807705</v>
+        <v>0.000150477207610689</v>
       </c>
       <c r="T12">
-        <v>0.0001890265828923436</v>
+        <v>0.0001551241929639544</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.924789</v>
+        <v>4.815307333333333</v>
       </c>
       <c r="H13">
-        <v>17.774367</v>
+        <v>14.445922</v>
       </c>
       <c r="I13">
-        <v>0.001713081603820286</v>
+        <v>0.001424639541189161</v>
       </c>
       <c r="J13">
-        <v>0.001740338929326963</v>
+        <v>0.001435438863411757</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>32.309272</v>
       </c>
       <c r="O13">
-        <v>0.1443206066922968</v>
+        <v>0.1485332542774742</v>
       </c>
       <c r="P13">
-        <v>0.1479082721718923</v>
+        <v>0.1519682288090475</v>
       </c>
       <c r="Q13">
-        <v>63.80853978120266</v>
+        <v>51.85969146542044</v>
       </c>
       <c r="R13">
-        <v>574.276858030824</v>
+        <v>466.737223188784</v>
       </c>
       <c r="S13">
-        <v>0.0002472329763767566</v>
+        <v>0.0002116063472251939</v>
       </c>
       <c r="T13">
-        <v>0.0002574105240302321</v>
+        <v>0.000218141101636357</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.924789</v>
+        <v>4.815307333333333</v>
       </c>
       <c r="H14">
-        <v>17.774367</v>
+        <v>14.445922</v>
       </c>
       <c r="I14">
-        <v>0.001713081603820286</v>
+        <v>0.001424639541189161</v>
       </c>
       <c r="J14">
-        <v>0.001740338929326963</v>
+        <v>0.001435438863411757</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.37830233333333</v>
+        <v>21.58649266666667</v>
       </c>
       <c r="N14">
-        <v>58.134907</v>
+        <v>64.759478</v>
       </c>
       <c r="O14">
-        <v>0.2596797924831069</v>
+        <v>0.2977144150029286</v>
       </c>
       <c r="P14">
-        <v>0.2661351715768665</v>
+        <v>0.3045993475265701</v>
       </c>
       <c r="Q14">
-        <v>114.8123525032077</v>
+        <v>103.9455964387462</v>
       </c>
       <c r="R14">
-        <v>1033.311172528869</v>
+        <v>935.510367948716</v>
       </c>
       <c r="S14">
-        <v>0.0004448526753866798</v>
+        <v>0.0004241357275951716</v>
       </c>
       <c r="T14">
-        <v>0.0004631653995583314</v>
+        <v>0.0004372337412095026</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.924789</v>
+        <v>4.815307333333333</v>
       </c>
       <c r="H15">
-        <v>17.774367</v>
+        <v>14.445922</v>
       </c>
       <c r="I15">
-        <v>0.001713081603820286</v>
+        <v>0.001424639541189161</v>
       </c>
       <c r="J15">
-        <v>0.001740338929326963</v>
+        <v>0.001435438863411757</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.430231</v>
+        <v>4.9167055</v>
       </c>
       <c r="N15">
-        <v>10.860462</v>
+        <v>9.833411</v>
       </c>
       <c r="O15">
-        <v>0.07276804928312694</v>
+        <v>0.06780972362103574</v>
       </c>
       <c r="P15">
-        <v>0.04971799331809439</v>
+        <v>0.04625192585030714</v>
       </c>
       <c r="Q15">
-        <v>32.172972896259</v>
+        <v>23.67544804999033</v>
       </c>
       <c r="R15">
-        <v>193.037837377554</v>
+        <v>142.052688299942</v>
       </c>
       <c r="S15">
-        <v>0.0001246576065728127</v>
+        <v>9.660441354763617E-05</v>
       </c>
       <c r="T15">
-        <v>8.652615925949748E-05</v>
+        <v>6.639181187316975E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.924789</v>
+        <v>4.815307333333333</v>
       </c>
       <c r="H16">
-        <v>17.774367</v>
+        <v>14.445922</v>
       </c>
       <c r="I16">
-        <v>0.001713081603820286</v>
+        <v>0.001424639541189161</v>
       </c>
       <c r="J16">
-        <v>0.001740338929326963</v>
+        <v>0.001435438863411757</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.136893</v>
+        <v>27.57585133333333</v>
       </c>
       <c r="N16">
-        <v>93.410679</v>
+        <v>82.727554</v>
       </c>
       <c r="O16">
-        <v>0.4172513037378061</v>
+        <v>0.3803178485122005</v>
       </c>
       <c r="P16">
-        <v>0.4276237525034073</v>
+        <v>0.3891130649766679</v>
       </c>
       <c r="Q16">
-        <v>184.479521140577</v>
+        <v>132.7861991483098</v>
       </c>
       <c r="R16">
-        <v>1660.315690265193</v>
+        <v>1195.075792334788</v>
       </c>
       <c r="S16">
-        <v>0.0007147855326032662</v>
+        <v>0.0005418158452104703</v>
       </c>
       <c r="T16">
-        <v>0.000744210263586558</v>
+        <v>0.0005585480157287733</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>162.5045395</v>
+        <v>76.28726950000001</v>
       </c>
       <c r="H17">
-        <v>325.009079</v>
+        <v>152.574539</v>
       </c>
       <c r="I17">
-        <v>0.04698623649799799</v>
+        <v>0.02257007769093324</v>
       </c>
       <c r="J17">
-        <v>0.03182256518999536</v>
+        <v>0.01516077844306046</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.908652666666666</v>
+        <v>7.658574666666667</v>
       </c>
       <c r="N17">
-        <v>23.725958</v>
+        <v>22.975724</v>
       </c>
       <c r="O17">
-        <v>0.1059802478036631</v>
+        <v>0.1056247585863608</v>
       </c>
       <c r="P17">
-        <v>0.1086148104297394</v>
+        <v>0.1080674328374073</v>
       </c>
       <c r="Q17">
-        <v>1285.191959662114</v>
+        <v>584.2517495818727</v>
       </c>
       <c r="R17">
-        <v>7711.151757972681</v>
+        <v>3505.510497491236</v>
       </c>
       <c r="S17">
-        <v>0.004979612987419347</v>
+        <v>0.002383959007380232</v>
       </c>
       <c r="T17">
-        <v>0.003456401885499369</v>
+        <v>0.001638386406158249</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>162.5045395</v>
+        <v>76.28726950000001</v>
       </c>
       <c r="H18">
-        <v>325.009079</v>
+        <v>152.574539</v>
       </c>
       <c r="I18">
-        <v>0.04698623649799799</v>
+        <v>0.02257007769093324</v>
       </c>
       <c r="J18">
-        <v>0.03182256518999536</v>
+        <v>0.01516077844306046</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>32.309272</v>
       </c>
       <c r="O18">
-        <v>0.1443206066922968</v>
+        <v>0.1485332542774742</v>
       </c>
       <c r="P18">
-        <v>0.1479082721718923</v>
+        <v>0.1519682288090475</v>
       </c>
       <c r="Q18">
-        <v>1750.134455980081</v>
+        <v>821.5953801376014</v>
       </c>
       <c r="R18">
-        <v>10500.80673588049</v>
+        <v>4929.572280825609</v>
       </c>
       <c r="S18">
-        <v>0.006781082157578811</v>
+        <v>0.003352407088729736</v>
       </c>
       <c r="T18">
-        <v>0.00470682063332962</v>
+        <v>0.002303956647358287</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>162.5045395</v>
+        <v>76.28726950000001</v>
       </c>
       <c r="H19">
-        <v>325.009079</v>
+        <v>152.574539</v>
       </c>
       <c r="I19">
-        <v>0.04698623649799799</v>
+        <v>0.02257007769093324</v>
       </c>
       <c r="J19">
-        <v>0.03182256518999536</v>
+        <v>0.01516077844306046</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.37830233333333</v>
+        <v>21.58649266666667</v>
       </c>
       <c r="N19">
-        <v>58.134907</v>
+        <v>64.759478</v>
       </c>
       <c r="O19">
-        <v>0.2596797924831069</v>
+        <v>0.2977144150029286</v>
       </c>
       <c r="P19">
-        <v>0.2661351715768665</v>
+        <v>0.3045993475265701</v>
       </c>
       <c r="Q19">
-        <v>3149.062096970109</v>
+        <v>1646.774583621774</v>
       </c>
       <c r="R19">
-        <v>18894.37258182065</v>
+        <v>9880.647501730644</v>
       </c>
       <c r="S19">
-        <v>0.0122013761433623</v>
+        <v>0.006719437476326839</v>
       </c>
       <c r="T19">
-        <v>0.008469103846855433</v>
+        <v>0.004617963221751105</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>162.5045395</v>
+        <v>76.28726950000001</v>
       </c>
       <c r="H20">
-        <v>325.009079</v>
+        <v>152.574539</v>
       </c>
       <c r="I20">
-        <v>0.04698623649799799</v>
+        <v>0.02257007769093324</v>
       </c>
       <c r="J20">
-        <v>0.03182256518999536</v>
+        <v>0.01516077844306046</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.430231</v>
+        <v>4.9167055</v>
       </c>
       <c r="N20">
-        <v>10.860462</v>
+        <v>9.833411</v>
       </c>
       <c r="O20">
-        <v>0.07276804928312694</v>
+        <v>0.06780972362103574</v>
       </c>
       <c r="P20">
-        <v>0.04971799331809439</v>
+        <v>0.04625192585030714</v>
       </c>
       <c r="Q20">
-        <v>882.4371880336245</v>
+        <v>375.0820375306323</v>
       </c>
       <c r="R20">
-        <v>3529.748752134498</v>
+        <v>1500.328150122529</v>
       </c>
       <c r="S20">
-        <v>0.003419096773114976</v>
+        <v>0.001530470730327488</v>
       </c>
       <c r="T20">
-        <v>0.001582154083480812</v>
+        <v>0.0007012152003813674</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>162.5045395</v>
+        <v>76.28726950000001</v>
       </c>
       <c r="H21">
-        <v>325.009079</v>
+        <v>152.574539</v>
       </c>
       <c r="I21">
-        <v>0.04698623649799799</v>
+        <v>0.02257007769093324</v>
       </c>
       <c r="J21">
-        <v>0.03182256518999536</v>
+        <v>0.01516077844306046</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>31.136893</v>
+        <v>27.57585133333333</v>
       </c>
       <c r="N21">
-        <v>93.410679</v>
+        <v>82.727554</v>
       </c>
       <c r="O21">
-        <v>0.4172513037378061</v>
+        <v>0.3803178485122005</v>
       </c>
       <c r="P21">
-        <v>0.4276237525034073</v>
+        <v>0.3891130649766679</v>
       </c>
       <c r="Q21">
-        <v>5059.886458425774</v>
+        <v>2103.686402357935</v>
       </c>
       <c r="R21">
-        <v>30359.31875055464</v>
+        <v>12622.11841414761</v>
       </c>
       <c r="S21">
-        <v>0.01960506843652255</v>
+        <v>0.008583803388168946</v>
       </c>
       <c r="T21">
-        <v>0.01360808474083012</v>
+        <v>0.00589925696741145</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>3.689559</v>
+        <v>3.227899333333333</v>
       </c>
       <c r="H22">
-        <v>11.068677</v>
+        <v>9.683698</v>
       </c>
       <c r="I22">
-        <v>0.001066791686439732</v>
+        <v>0.0009549947089382317</v>
       </c>
       <c r="J22">
-        <v>0.001083765710432669</v>
+        <v>0.0009622339405364853</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.908652666666666</v>
+        <v>7.658574666666667</v>
       </c>
       <c r="N22">
-        <v>23.725958</v>
+        <v>22.975724</v>
       </c>
       <c r="O22">
-        <v>0.1059802478036631</v>
+        <v>0.1056247585863608</v>
       </c>
       <c r="P22">
-        <v>0.1086148104297394</v>
+        <v>0.1080674328374073</v>
       </c>
       <c r="Q22">
-        <v>29.179440624174</v>
+        <v>24.72110806081689</v>
       </c>
       <c r="R22">
-        <v>262.614965617566</v>
+        <v>222.489972547352</v>
       </c>
       <c r="S22">
-        <v>0.0001130588472837704</v>
+        <v>0.0001008710855828527</v>
       </c>
       <c r="T22">
-        <v>0.0001177130071888961</v>
+        <v>0.0001039861517428004</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>3.689559</v>
+        <v>3.227899333333333</v>
       </c>
       <c r="H23">
-        <v>11.068677</v>
+        <v>9.683698</v>
       </c>
       <c r="I23">
-        <v>0.001066791686439732</v>
+        <v>0.0009549947089382317</v>
       </c>
       <c r="J23">
-        <v>0.001083765710432669</v>
+        <v>0.0009622339405364853</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>32.309272</v>
       </c>
       <c r="O23">
-        <v>0.1443206066922968</v>
+        <v>0.1485332542774742</v>
       </c>
       <c r="P23">
-        <v>0.1479082721718923</v>
+        <v>0.1519682288090475</v>
       </c>
       <c r="Q23">
-        <v>39.735655097016</v>
+        <v>34.76369251642844</v>
       </c>
       <c r="R23">
-        <v>357.620895873144</v>
+        <v>312.873232647856</v>
       </c>
       <c r="S23">
-        <v>0.0001539600234012806</v>
+        <v>0.0001418484719363649</v>
       </c>
       <c r="T23">
-        <v>0.0001602979136692394</v>
+        <v>0.00014622898764328</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>3.689559</v>
+        <v>3.227899333333333</v>
       </c>
       <c r="H24">
-        <v>11.068677</v>
+        <v>9.683698</v>
       </c>
       <c r="I24">
-        <v>0.001066791686439732</v>
+        <v>0.0009549947089382317</v>
       </c>
       <c r="J24">
-        <v>0.001083765710432669</v>
+        <v>0.0009622339405364853</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.37830233333333</v>
+        <v>21.58649266666667</v>
       </c>
       <c r="N24">
-        <v>58.134907</v>
+        <v>64.759478</v>
       </c>
       <c r="O24">
-        <v>0.2596797924831069</v>
+        <v>0.2977144150029286</v>
       </c>
       <c r="P24">
-        <v>0.2661351715768665</v>
+        <v>0.3045993475265701</v>
       </c>
       <c r="Q24">
-        <v>71.49738977867101</v>
+        <v>69.67902528773823</v>
       </c>
       <c r="R24">
-        <v>643.476508008039</v>
+        <v>627.111227589644</v>
       </c>
       <c r="S24">
-        <v>0.0002770242437573731</v>
+        <v>0.0002843156911024377</v>
       </c>
       <c r="T24">
-        <v>0.0002884281732951229</v>
+        <v>0.0002930958304553339</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>3.689559</v>
+        <v>3.227899333333333</v>
       </c>
       <c r="H25">
-        <v>11.068677</v>
+        <v>9.683698</v>
       </c>
       <c r="I25">
-        <v>0.001066791686439732</v>
+        <v>0.0009549947089382317</v>
       </c>
       <c r="J25">
-        <v>0.001083765710432669</v>
+        <v>0.0009622339405364853</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.430231</v>
+        <v>4.9167055</v>
       </c>
       <c r="N25">
-        <v>10.860462</v>
+        <v>9.833411</v>
       </c>
       <c r="O25">
-        <v>0.07276804928312694</v>
+        <v>0.06780972362103574</v>
       </c>
       <c r="P25">
-        <v>0.04971799331809439</v>
+        <v>0.04625192585030714</v>
       </c>
       <c r="Q25">
-        <v>20.035157658129</v>
+        <v>15.87063040564633</v>
       </c>
       <c r="R25">
-        <v>120.210945948774</v>
+        <v>95.223782433878</v>
       </c>
       <c r="S25">
-        <v>7.76283500136765E-05</v>
+        <v>6.475792727265297E-05</v>
       </c>
       <c r="T25">
-        <v>5.388265634967124E-05</v>
+        <v>4.450517286834237E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>3.689559</v>
+        <v>3.227899333333333</v>
       </c>
       <c r="H26">
-        <v>11.068677</v>
+        <v>9.683698</v>
       </c>
       <c r="I26">
-        <v>0.001066791686439732</v>
+        <v>0.0009549947089382317</v>
       </c>
       <c r="J26">
-        <v>0.001083765710432669</v>
+        <v>0.0009622339405364853</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>31.136893</v>
+        <v>27.57585133333333</v>
       </c>
       <c r="N26">
-        <v>93.410679</v>
+        <v>82.727554</v>
       </c>
       <c r="O26">
-        <v>0.4172513037378061</v>
+        <v>0.3803178485122005</v>
       </c>
       <c r="P26">
-        <v>0.4276237525034073</v>
+        <v>0.3891130649766679</v>
       </c>
       <c r="Q26">
-        <v>114.881403800187</v>
+        <v>89.01207213496578</v>
       </c>
       <c r="R26">
-        <v>1033.932634201683</v>
+        <v>801.1086492146919</v>
       </c>
       <c r="S26">
-        <v>0.0004451202219836309</v>
+        <v>0.0003632015330439234</v>
       </c>
       <c r="T26">
-        <v>0.0004634439599297389</v>
+        <v>0.0003744177978267286</v>
       </c>
     </row>
   </sheetData>
